--- a/database/imports/term_paths.xlsx
+++ b/database/imports/term_paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\LaravelOcadmin\laraocadmin10\httpdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF08BEE7-4668-43A8-9AC3-3F0B018D3F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56EAC0B-F30A-490D-A3A8-50DC2846A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="690" windowWidth="21600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/database/imports/term_paths.xlsx
+++ b/database/imports/term_paths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\LaravelOcadmin\laraocadmin10\httpdocs\database\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\Ocadmin\httpdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56EAC0B-F30A-490D-A3A8-50DC2846A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38438CBB-E80A-4D5F-94AE-C117EFCE26D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="690" windowWidth="21600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>term_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>CR-V</t>
-  </si>
-  <si>
-    <t>CR-V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,54 +86,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.5L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2.4L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.0L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.8L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2.0L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CR-V 第五代</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CR-V 第六代</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,14 +102,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
     <t>祖先</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CorollaAltis</t>
   </si>
   <si>
     <t>group_id</t>
@@ -210,12 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,22 +446,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,13 +471,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -541,15 +488,14 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>147</v>
       </c>
       <c r="B3">
-        <f>VLOOKUP(E3,$H$3:$I$24,2,FALSE)</f>
         <v>33</v>
       </c>
       <c r="C3">
@@ -561,19 +507,12 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>147</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="A3:B42" si="0">VLOOKUP(E4,$H$3:$I$24,2,FALSE)</f>
         <v>77</v>
       </c>
       <c r="C4">
@@ -583,21 +522,14 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>147</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="C5">
@@ -607,21 +539,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>147</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="C6">
@@ -631,21 +556,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>147</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C7">
@@ -657,19 +575,12 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>147</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C8">
@@ -679,23 +590,16 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>147</v>
+      </c>
+      <c r="B9">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>147</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
       <c r="C9">
         <v>2</v>
       </c>
@@ -703,21 +607,14 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="1">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>147</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="C10">
@@ -727,21 +624,14 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>147</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C11">
@@ -753,19 +643,12 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>147</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C12">
@@ -775,21 +658,14 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>147</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="C13">
@@ -799,45 +675,31 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>147</v>
+      </c>
+      <c r="B14">
+        <v>147</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>147</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>148</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C15">
@@ -849,19 +711,12 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>148</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C16">
@@ -871,21 +726,14 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>148</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="C17">
@@ -895,21 +743,14 @@
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="1">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>148</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="C18">
@@ -919,21 +760,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>147</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C19">
@@ -945,19 +779,12 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>147</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C20">
@@ -967,21 +794,14 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>147</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="C21">
@@ -991,21 +811,14 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>147</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="C22">
@@ -1015,21 +828,14 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>148</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C23">
@@ -1041,19 +847,12 @@
       <c r="E23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>148</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C24">
@@ -1063,39 +862,31 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>148</v>
+      </c>
+      <c r="B25">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>148</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>148</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="C26">
@@ -1105,15 +896,14 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>144</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C27">
@@ -1126,12 +916,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>144</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C28">
@@ -1141,15 +930,14 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>144</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="C29">
@@ -1159,15 +947,14 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>144</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="C30">
@@ -1177,15 +964,14 @@
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>145</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C31">
@@ -1198,12 +984,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>145</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C32">
@@ -1213,15 +998,14 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>145</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="C33">
@@ -1231,15 +1015,14 @@
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>145</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="C34">
@@ -1249,15 +1032,14 @@
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>147</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35">
@@ -1270,12 +1052,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>147</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C36">
@@ -1285,15 +1066,14 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>147</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="C37">
@@ -1303,15 +1083,14 @@
         <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>147</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="C38">
@@ -1321,15 +1100,14 @@
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>148</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C39">
@@ -1342,12 +1120,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>148</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C40">
@@ -1357,15 +1134,14 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>148</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="C41">
@@ -1375,15 +1151,14 @@
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>148</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="C42">
@@ -1393,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
